--- a/graphs/Excel/India_draft_sheet.xlsx
+++ b/graphs/Excel/India_draft_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Self_GitKraken\Working_Repo_GitHub\COVID19\graphs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC5F5A9-D311-4F13-966E-94F13190AB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6ECC5B-0F94-4E40-B246-E14B57F8372E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BBA9FBD-A4A8-4AC8-8855-274A9D94B4E8}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>confirmed</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>recovered</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -54,10 +54,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,9 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,67 +127,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>COVID19 Cases in India In past 07 Days </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -193,7 +143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30-Mar-2020</c:v>
+                  <c:v>31-Mar-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -283,14 +233,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1251</c:v>
+                  <c:v>1397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5CB7-40EC-B98A-E477DAE3AEF7}"/>
+              <c16:uniqueId val="{00000000-3318-47BB-87A4-BA361BBB1F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -303,7 +253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6-Apr-2020</c:v>
+                  <c:v>7-Apr-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -393,14 +343,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3527</c:v>
+                  <c:v>3914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5CB7-40EC-B98A-E477DAE3AEF7}"/>
+              <c16:uniqueId val="{00000001-3318-47BB-87A4-BA361BBB1F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -414,11 +364,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1611907007"/>
-        <c:axId val="1494387919"/>
+        <c:axId val="1719722063"/>
+        <c:axId val="1801634015"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1611907007"/>
+        <c:axId val="1719722063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1494387919"/>
+        <c:crossAx val="1801634015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1494387919"/>
+        <c:axId val="1801634015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611907007"/>
+        <c:crossAx val="1719722063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1147,23 +1097,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603E8DB2-A574-4D80-91AE-C10D9071000A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E65B11B-8B0A-45BC-BE46-76DB171E207D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23AB778-FA5D-4CF4-B943-092E68995CF4}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,48 +1445,40 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B2">
-        <v>1251</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>102</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B3">
-        <v>3527</v>
+        <v>3914</v>
       </c>
-      <c r="C3">
-        <v>104</v>
-      </c>
-      <c r="D3">
-        <v>273</v>
-      </c>
+    </row>
+    <row r="19" spans="4:4" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/graphs/Excel/India_draft_sheet.xlsx
+++ b/graphs/Excel/India_draft_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Self_GitKraken\Working_Repo_GitHub\COVID19\graphs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6ECC5B-0F94-4E40-B246-E14B57F8372E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4684259-A75B-41D9-BF4F-5D763F1EF4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BBA9FBD-A4A8-4AC8-8855-274A9D94B4E8}"/>
   </bookViews>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,7 +1474,10 @@
       </c>
     </row>
     <row r="19" spans="4:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <f>3914/1397</f>
+        <v>2.8017179670722978</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
